--- a/biology/Médecine/Petit_trochanter/Petit_trochanter.xlsx
+++ b/biology/Médecine/Petit_trochanter/Petit_trochanter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Le petit trochanter est une une saillie osseuse conique de l'extrémité supérieure du fémur.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le petit trochanter se situe au niveau de la jonction entre le col fémoral et la face interne du corps du fémur[1].
-Le sommet et la face antérieure du petit trochanter sont rugueux, tandis que sa face postérieure est lisse[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le petit trochanter se situe au niveau de la jonction entre le col fémoral et la face interne du corps du fémur.
+Le sommet et la face antérieure du petit trochanter sont rugueux, tandis que sa face postérieure est lisse.
 De son sommet s'étendent trois lignes bien marquées :
 la ligne inter-trochantérique,
 la crête inter-trochantérique,
@@ -549,9 +563,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le petit trochanter peut être impliqué dans une fracture par avulsion[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le petit trochanter peut être impliqué dans une fracture par avulsion.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La position du petit trochanter près de la tête du fémur est l'une des caractéristiques déterminantes de la clade des Prozostrodontia, qui est le clade des cynodontes comprenant les mammifères et leurs plus proches parents non mammifères.
 Tous les mammifères vivants ont un petit trochanter, dont la taille, la forme et la position sont propres à leur espèce.
